--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>

--- a/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
+++ b/Logging_KRONOBERGS_LAN/Översikt KRONOBERGS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45108</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>45118</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>45118</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>45118</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
         <v>45121</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>45121</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>45121</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3370,7 +3370,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>45121</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45121</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45124</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45126</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45126</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45127</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45127</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         <v>45127</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45128</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45128</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45128</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>45128</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>45128</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45128</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>45129</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45131</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>45131</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45132</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>45138</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
